--- a/results/transfer_learning_VGG16_results.xlsx
+++ b/results/transfer_learning_VGG16_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,38 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.891979575157166</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
